--- a/ControlCambios/01_Identificacion_Solicitud_Cambio/Solicitudes/IdfSlc_011.xlsx
+++ b/ControlCambios/01_Identificacion_Solicitud_Cambio/Solicitudes/IdfSlc_011.xlsx
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="8">
-        <v>45323</v>
+        <v>45365</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="1"/>
